--- a/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC02-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC02-Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-S2024\BUSI201-S2024-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC524DB-1ABD-43D6-B7F7-D357B4158E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82DF377-0521-47EE-A17F-8DFFD3D7E1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{BF17DDDA-E86E-4F22-B5A6-A404B5E9B8D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BF17DDDA-E86E-4F22-B5A6-A404B5E9B8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2022Q3Stock" sheetId="10" r:id="rId1"/>
@@ -1087,23 +1087,8 @@
     <xf numFmtId="19" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1171,6 +1156,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1191,9 +1191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1231,7 +1231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1337,7 +1337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1479,7 +1479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1489,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E75C71F-BC26-4AF9-A521-87E0310CFD8E}">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
@@ -1502,15 +1502,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="2:8" ht="15.5">
       <c r="B4" s="9" t="s">
@@ -1850,519 +1850,519 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" style="31" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="31"/>
+    <col min="1" max="1" width="4" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="28.75" customHeight="1" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="41">
         <f t="shared" ref="I3:I20" si="0">SUM(C3:H3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2382,519 +2382,519 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" style="31" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="31"/>
+    <col min="1" max="1" width="4" style="26" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="28.75" customHeight="1" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="41">
         <f t="shared" ref="I3:I20" si="0">SUM(C3:H3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="43">
         <v>93</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="43">
         <v>85</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="43">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="43">
         <v>58</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="43">
         <v>94</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="43">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="43">
         <v>63</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="43">
         <v>90</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="43">
         <v>79</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="43">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="43">
         <v>66</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="43">
         <v>76</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="43">
         <v>50</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="43">
         <v>88</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="43">
         <v>86</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="43">
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="43">
         <v>63</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="43">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="43">
         <v>51</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="43">
         <v>83</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="43">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="43">
         <v>74</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="43">
         <v>77</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="43">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="43">
         <v>81</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="43">
         <v>81</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="43">
         <v>76</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="43">
         <v>51</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="43">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="43">
         <v>77</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="43">
         <v>83</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="43">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="43">
         <v>69</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="43">
         <v>62</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="43">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="43">
         <v>65</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="43">
         <v>99</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="43">
         <v>99</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="43">
         <v>97</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="43">
         <v>81</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="43">
         <v>91</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="43">
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="43">
         <v>77</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="43">
         <v>96</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="43">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="43">
         <v>91</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="43">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="43">
         <v>77</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="43">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -2924,15 +2924,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="2:8" ht="15.5">
       <c r="B4" s="9" t="s">
@@ -3281,15 +3281,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="2:8" ht="15.5">
       <c r="B4" s="9" t="s">
@@ -3638,15 +3638,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="2:8" ht="15.5">
       <c r="B4" s="9" t="s">
@@ -3995,15 +3995,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="4" spans="2:8" ht="15.5">
       <c r="B4" s="9" t="s">
@@ -4357,47 +4357,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="4" spans="2:17" ht="15.5">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="K4" s="22" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="K4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="O4" s="22" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="O4" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1">
       <c r="B5" s="15" t="s">
@@ -4805,17 +4805,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="23.5">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="4" spans="2:16" ht="15.5">
       <c r="B4" s="18" t="s">
@@ -4845,13 +4845,13 @@
       <c r="J4" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
@@ -5137,79 +5137,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435EAD79-F7F5-4B92-BA7D-881869C8C423}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="24"/>
-    <col min="2" max="2" width="2.81640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="24"/>
+    <col min="1" max="1" width="8.90625" style="21"/>
+    <col min="2" max="2" width="2.81640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="20" customHeight="1">
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>55555555555</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="20" customHeight="1">
-      <c r="B3" s="25">
+      <c r="B3" s="47">
         <v>5.5555555555555501E+24</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="2:4" ht="20" customHeight="1">
-      <c r="B4" s="26" t="e" cm="1">
+      <c r="B4" s="48" t="e" cm="1">
         <f t="array" ref="B4">A1+A0</f>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="2:4" ht="20" customHeight="1">
-      <c r="B5" s="26" t="e" cm="1">
+      <c r="B5" s="48" t="e" cm="1">
         <f t="array" ref="B5">VLOOKUP("Target",A1:A5,B1:B5,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="2:4" ht="20" customHeight="1">
-      <c r="B6" s="26" t="e" cm="1">
+      <c r="B6" s="48" t="e" cm="1">
         <f t="array" ref="B6">555+Excel</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="2:4" ht="20" customHeight="1">
-      <c r="B7" s="26" t="e">
+      <c r="B7" s="48" t="e">
         <f>A2+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="2:4" ht="20" customHeight="1">
-      <c r="B8" s="26" t="e">
+      <c r="B8" s="48" t="e">
         <f>555/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5225,310 +5225,310 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" style="31" customWidth="1"/>
-    <col min="2" max="3" width="8.90625" style="31"/>
-    <col min="4" max="4" width="38.90625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="31"/>
+    <col min="1" max="1" width="3.6328125" style="26" customWidth="1"/>
+    <col min="2" max="3" width="8.90625" style="26"/>
+    <col min="4" max="4" width="38.90625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="28">
         <v>8</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="29">
         <v>316.66666666666669</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="30">
         <v>2533.3333333333335</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="28">
         <v>10</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="29">
         <v>541.66666666666663</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="30">
         <v>5416.6666666666661</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="28">
         <v>13</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="29">
         <v>1100</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="30">
         <v>14300</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="28">
         <v>15</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="29">
         <v>558.33333333333337</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>8375</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="28">
         <v>14</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="29">
         <v>440.83333333333331</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="30">
         <v>6171.6666666666661</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="28">
         <v>8</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="29">
         <v>1525</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="30">
         <v>12200</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="28">
         <v>9</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="29">
         <v>908.33333333333337</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="30">
         <v>8175</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="28">
         <v>14</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="29">
         <v>4800</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>67200</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="28">
         <v>14</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <v>675</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="30">
         <v>9450</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="28">
         <v>9</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <v>1491.6666666666667</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="30">
         <v>13425</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="28">
         <v>12</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <v>1166.6666666666667</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="30">
         <v>14000</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="28">
         <v>15</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <v>1000</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="30">
         <v>15000</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="32">
         <v>13</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="33">
         <v>600</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="33">
         <v>7800</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="37">
         <f>SUM(G3:G14)</f>
         <v>176246.66666666666</v>
       </c>
     </row>
     <row r="18" spans="6:7">
-      <c r="F18" s="39"/>
+      <c r="F18" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
